--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3050317.52942668</v>
+        <v>3046161.343118713</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>204.578443248217</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>262.4581760583889</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>259.1999290095867</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>125.8951146780611</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>240.0586667805021</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>68.92507854420231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555396</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>197.2797690696487</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>113.153611138112</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>409.7603599903505</v>
+        <v>284.7276021833068</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.9354087744531</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555396</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.33387159560088</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>32.94080611480809</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417135</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>105.6507867899569</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>176.5196562849271</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881302</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>99.17988875728723</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>41.55695577161328</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1855,10 +1855,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>28.7518808581214</v>
       </c>
       <c r="D19" t="n">
-        <v>123.3988099269029</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206857</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>148.628235372949</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>87.2147151485303</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428297</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2557,13 +2557,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695349</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>140.1230996349834</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>2.26848612580876</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>80.33989744908955</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>28.23631843387907</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>78.91051008678096</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>3.006892987834117</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>34.67929910923795</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569554</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174131</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>62.84300698292715</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856563</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012177</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>242.460383371009</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V46" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1576.74086538194</v>
+        <v>360.5823164832036</v>
       </c>
       <c r="C2" t="n">
-        <v>1576.74086538194</v>
+        <v>360.5823164832036</v>
       </c>
       <c r="D2" t="n">
-        <v>1576.74086538194</v>
+        <v>360.5823164832036</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.952612783695</v>
+        <v>360.5823164832036</v>
       </c>
       <c r="F2" t="n">
-        <v>779.9667079940879</v>
+        <v>353.6368157340001</v>
       </c>
       <c r="G2" t="n">
-        <v>363.5144466859625</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073763</v>
+        <v>293.3053724073764</v>
       </c>
       <c r="K2" t="n">
-        <v>644.3837423617392</v>
+        <v>455.1003844723718</v>
       </c>
       <c r="L2" t="n">
-        <v>882.0065235799312</v>
+        <v>692.7231656905639</v>
       </c>
       <c r="M2" t="n">
-        <v>1178.077090137534</v>
+        <v>988.7937322481669</v>
       </c>
       <c r="N2" t="n">
-        <v>1483.55219637312</v>
+        <v>1294.268838483752</v>
       </c>
       <c r="O2" t="n">
-        <v>1758.668415689754</v>
+        <v>1929.733672768588</v>
       </c>
       <c r="P2" t="n">
-        <v>2277.553464068625</v>
+        <v>2448.618721147459</v>
       </c>
       <c r="Q2" t="n">
-        <v>2589.992766140986</v>
+        <v>2550.866182466515</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
@@ -4363,19 +4363,19 @@
         <v>2448.259651016315</v>
       </c>
       <c r="U2" t="n">
-        <v>2194.618789397901</v>
+        <v>2194.618789397902</v>
       </c>
       <c r="V2" t="n">
-        <v>2194.618789397901</v>
+        <v>1863.555902054331</v>
       </c>
       <c r="W2" t="n">
-        <v>1841.850134127787</v>
+        <v>1510.787246784217</v>
       </c>
       <c r="X2" t="n">
-        <v>1841.850134127787</v>
+        <v>1137.321488523137</v>
       </c>
       <c r="Y2" t="n">
-        <v>1576.74086538194</v>
+        <v>747.1821565473253</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093631</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282361</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669849</v>
+        <v>626.5027693669851</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615294</v>
+        <v>467.2653143615296</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884144</v>
+        <v>320.7307563884146</v>
       </c>
       <c r="G3" t="n">
         <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093836</v>
+        <v>85.9974213009382</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
@@ -4415,19 +4415,19 @@
         <v>585.1891840496874</v>
       </c>
       <c r="L3" t="n">
-        <v>1041.052645433267</v>
+        <v>1161.911999152943</v>
       </c>
       <c r="M3" t="n">
-        <v>1304.992176928754</v>
+        <v>1620.270317882293</v>
       </c>
       <c r="N3" t="n">
-        <v>1590.326047362088</v>
+        <v>1905.604188315626</v>
       </c>
       <c r="O3" t="n">
-        <v>1829.130999113547</v>
+        <v>2144.409140067085</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020794</v>
+        <v>2316.738101020795</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4442,7 +4442,7 @@
         <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259862</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
         <v>1787.95470102812</v>
@@ -4454,7 +4454,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329431</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>539.1744500699384</v>
+        <v>781.594482884261</v>
       </c>
       <c r="C4" t="n">
-        <v>370.2382671420315</v>
+        <v>612.6582999563541</v>
       </c>
       <c r="D4" t="n">
-        <v>220.1216277296958</v>
+        <v>462.5416605440183</v>
       </c>
       <c r="E4" t="n">
-        <v>220.1216277296958</v>
+        <v>314.6285669616252</v>
       </c>
       <c r="F4" t="n">
-        <v>220.1216277296958</v>
+        <v>167.7386194637149</v>
       </c>
       <c r="G4" t="n">
-        <v>51.79985532281972</v>
+        <v>167.7386194637149</v>
       </c>
       <c r="H4" t="n">
-        <v>51.79985532281972</v>
+        <v>167.7386194637149</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018415</v>
+        <v>54.03452733018416</v>
       </c>
       <c r="K4" t="n">
         <v>187.5436166159875</v>
@@ -4521,19 +4521,19 @@
         <v>1311.202309361123</v>
       </c>
       <c r="U4" t="n">
-        <v>1049.384199250429</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="V4" t="n">
-        <v>1049.384199250429</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="W4" t="n">
-        <v>759.9670292134685</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="X4" t="n">
-        <v>759.9670292134685</v>
+        <v>1184.035526858031</v>
       </c>
       <c r="Y4" t="n">
-        <v>539.1744500699384</v>
+        <v>963.2429477145007</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1540.557833093248</v>
+        <v>1587.443666017298</v>
       </c>
       <c r="C5" t="n">
-        <v>1540.557833093248</v>
+        <v>1218.481149076886</v>
       </c>
       <c r="D5" t="n">
-        <v>1182.292134486497</v>
+        <v>860.2154504701355</v>
       </c>
       <c r="E5" t="n">
-        <v>1182.292134486497</v>
+        <v>474.4271978718913</v>
       </c>
       <c r="F5" t="n">
-        <v>771.3062296968895</v>
+        <v>63.44129308228371</v>
       </c>
       <c r="G5" t="n">
-        <v>355.6243878970215</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H5" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I5" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104782</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K5" t="n">
         <v>447.8319447135509</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477379</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.47811553997</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.81819508206</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645556</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507461</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T5" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U5" t="n">
-        <v>2336.413538083232</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V5" t="n">
-        <v>2336.413538083232</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="W5" t="n">
-        <v>1983.644882813118</v>
+        <v>2347.509264342499</v>
       </c>
       <c r="X5" t="n">
-        <v>1610.179124552038</v>
+        <v>1974.043506081419</v>
       </c>
       <c r="Y5" t="n">
-        <v>1540.557833093248</v>
+        <v>1974.043506081419</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I6" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096208</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>688.5974568552862</v>
+        <v>598.8031573431335</v>
       </c>
       <c r="L6" t="n">
-        <v>985.9094059716008</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M6" t="n">
-        <v>1352.215295463926</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N6" t="n">
-        <v>1742.624856789668</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O6" t="n">
-        <v>2077.5535375052</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P6" t="n">
-        <v>2327.030265370218</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>350.5640303022736</v>
+        <v>833.6319074814764</v>
       </c>
       <c r="C7" t="n">
-        <v>350.5640303022736</v>
+        <v>664.6957245535696</v>
       </c>
       <c r="D7" t="n">
-        <v>200.4473908899379</v>
+        <v>514.5790851412338</v>
       </c>
       <c r="E7" t="n">
-        <v>200.4473908899379</v>
+        <v>366.6659915588407</v>
       </c>
       <c r="F7" t="n">
-        <v>200.4473908899379</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="G7" t="n">
-        <v>200.4473908899379</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H7" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I7" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080543</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121971</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225441</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317418</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N7" t="n">
         <v>1130.141273750633</v>
@@ -4746,31 +4746,31 @@
         <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
-        <v>1646.983670153877</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910903</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1544.862307910903</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T7" t="n">
-        <v>1321.927733452885</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U7" t="n">
-        <v>1122.655239443138</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V7" t="n">
-        <v>867.9707512372515</v>
+        <v>1532.687093246694</v>
       </c>
       <c r="W7" t="n">
-        <v>578.553581200291</v>
+        <v>1243.269923209733</v>
       </c>
       <c r="X7" t="n">
-        <v>350.5640303022736</v>
+        <v>1015.280372311716</v>
       </c>
       <c r="Y7" t="n">
-        <v>350.5640303022736</v>
+        <v>1015.280372311716</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1199.872925144792</v>
+        <v>1863.758352609792</v>
       </c>
       <c r="C8" t="n">
-        <v>830.9104082043802</v>
+        <v>1863.758352609792</v>
       </c>
       <c r="D8" t="n">
-        <v>472.6447095976297</v>
+        <v>1505.492654003041</v>
       </c>
       <c r="E8" t="n">
-        <v>472.6447095976297</v>
+        <v>1119.704401404797</v>
       </c>
       <c r="F8" t="n">
-        <v>465.6992088484263</v>
+        <v>708.7184966151897</v>
       </c>
       <c r="G8" t="n">
-        <v>51.7998553228197</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H8" t="n">
-        <v>51.7998553228197</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104779</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135508</v>
+        <v>447.8319447135507</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477376</v>
+        <v>804.6133007477381</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187501</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.47811553997</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
         <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645556</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507461</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.815585560729</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T8" t="n">
-        <v>2257.170226019557</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U8" t="n">
-        <v>2257.170226019557</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V8" t="n">
-        <v>1926.107338675986</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="W8" t="n">
-        <v>1573.338683405872</v>
+        <v>2237.224110870872</v>
       </c>
       <c r="X8" t="n">
-        <v>1199.872925144792</v>
+        <v>1863.758352609792</v>
       </c>
       <c r="Y8" t="n">
-        <v>1199.872925144792</v>
+        <v>1863.758352609792</v>
       </c>
     </row>
     <row r="9">
@@ -4877,16 +4877,16 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>240.1153828096208</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>598.8031573431336</v>
+        <v>598.8031573431335</v>
       </c>
       <c r="L9" t="n">
         <v>896.1151064594483</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1087.825563768798</v>
+        <v>404.1262191931716</v>
       </c>
       <c r="C10" t="n">
-        <v>918.8893808408909</v>
+        <v>235.1900362652646</v>
       </c>
       <c r="D10" t="n">
-        <v>768.7727414285552</v>
+        <v>85.07339685292891</v>
       </c>
       <c r="E10" t="n">
-        <v>620.859647846162</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F10" t="n">
-        <v>473.9697003482516</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G10" t="n">
-        <v>305.993511610141</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H10" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080545</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121971</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225442</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317419</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
         <v>1130.141273750633</v>
@@ -4995,19 +4995,19 @@
         <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>1646.983670153878</v>
+        <v>1357.865893164276</v>
       </c>
       <c r="V10" t="n">
-        <v>1646.983670153878</v>
+        <v>1103.181404958389</v>
       </c>
       <c r="W10" t="n">
-        <v>1357.566500116917</v>
+        <v>813.7642349214286</v>
       </c>
       <c r="X10" t="n">
-        <v>1129.5769492189</v>
+        <v>585.7746840234113</v>
       </c>
       <c r="Y10" t="n">
-        <v>1129.5769492189</v>
+        <v>585.7746840234113</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969308</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>840.8417932021788</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1468.439756756786</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2020.349486996073</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2443.972636491141</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2273.199413378161</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5266,49 +5266,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466574</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>94.56320294380259</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J15" t="n">
-        <v>244.2098454714573</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>244.2098454714573</v>
+        <v>577.3880777468476</v>
       </c>
       <c r="L15" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589159</v>
       </c>
       <c r="N15" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143766</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.6461798836018</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C16" t="n">
-        <v>565.7099969556949</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D16" t="n">
-        <v>465.5282911402533</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2404.986360578632</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138415</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2317.776026551877</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004715</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5533,28 +5533,28 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123005</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591811</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K18" t="n">
-        <v>409.1360811687895</v>
+        <v>577.3880777468476</v>
       </c>
       <c r="L18" t="n">
-        <v>904.4616873845483</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M18" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589159</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143766</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.547769317909</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C19" t="n">
-        <v>762.547769317909</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111708</v>
@@ -5758,46 +5758,46 @@
         <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="21">
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3006.417838136244</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>2856.288307456497</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>2856.288307456497</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>2708.375213874104</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>2561.485266376194</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053499</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4288.37685307644</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>3999.301626420638</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>3744.617138214751</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>3455.199968177791</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>3227.210417279774</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>3006.417838136244</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192514</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273913</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245692</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403282</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270456</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="26">
@@ -6217,28 +6217,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6247,25 +6247,25 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591809</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951538</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>945.402603663004</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>776.4664207350971</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>626.3497813227614</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,16 +6451,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6472,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6548,16 +6548,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1802.364528928006</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>802.9288273958764</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C31" t="n">
-        <v>633.9926444679696</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408901</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408901</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429798</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578599</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.46108051051</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304624</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267663</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369646</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.577292226116</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="32">
@@ -6694,22 +6694,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6718,10 +6718,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2515.675093211831</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>264.0500279773688</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>264.0500279773688</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6937,10 +6937,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7031,13 +7031,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>264.0500279773688</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>264.0500279773688</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>96.85392869224876</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>96.85392869224876</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7165,28 +7165,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>985.7836617409695</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>816.8474788130626</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>666.7308394007268</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2160.315914855604</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1905.631426649717</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1616.214256612757</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1388.224705714739</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1167.432126571209</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,28 +7399,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
@@ -7496,19 +7496,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1802.364528928006</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>870.3164745246288</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>701.3802915967218</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654823</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>489.989413183089</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851785</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000584</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.747069396416</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>558.0193492433384</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>558.0193492433384</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>407.9027098310025</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310025</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>261.012762333092</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1732.551602357974</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1477.867114152087</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1188.449944115126</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>960.4603932171085</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>739.6678140735783</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>191.1953109993611</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7993,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>363.9884999678804</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159724</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8063,10 +8063,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>248.7601900310589</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>196.3826133675379</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>173.7639243740404</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>119.3759750973112</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906583</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>173.7639243740406</v>
+        <v>173.7639243740404</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906581</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>49.43558426092513</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.4693302300313</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405064</v>
       </c>
       <c r="D19" t="n">
-        <v>25.21666309130944</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>18.61858572567883</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194089</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>6.310863011585809</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>146.3469868924035</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.184474389244</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>137.2878198583898</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>78.25894333073141</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>111.7546635373312</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>85.77246603528532</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.294712846224</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012177</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856563</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>43.72409101823527</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>731921.4354061164</v>
+        <v>731921.4354061165</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>731921.4354061164</v>
+        <v>731921.4354061165</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>731921.4354061165</v>
+        <v>731921.4354061164</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>731921.4354061165</v>
+        <v>731921.4354061164</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="C2" t="n">
+        <v>697885.5043846411</v>
+      </c>
+      <c r="D2" t="n">
         <v>697885.5043846413</v>
       </c>
-      <c r="D2" t="n">
-        <v>697885.5043846414</v>
-      </c>
       <c r="E2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="F2" t="n">
         <v>686074.6097365055</v>
-      </c>
-      <c r="F2" t="n">
-        <v>686074.6097365053</v>
       </c>
       <c r="G2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="O2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="P2" t="n">
         <v>686074.6097365057</v>
-      </c>
-      <c r="P2" t="n">
-        <v>686074.6097365055</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753986</v>
+        <v>939682.9358753987</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898921</v>
+        <v>172764.3597898923</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457509</v>
+        <v>500888.8677457512</v>
       </c>
       <c r="F3" t="n">
-        <v>1.282009927372613e-10</v>
+        <v>2.42299065000967e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260481</v>
+        <v>169414.0168260474</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
         <v>130884.4569042353</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
         <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
+        <v>6287.480531694953</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6287.480531694981</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6287.480531694957</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6287.48053169493</v>
+      </c>
+      <c r="I4" t="n">
         <v>6287.480531695052</v>
       </c>
-      <c r="F4" t="n">
-        <v>6287.480531695011</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6287.48053169497</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
+        <v>6287.480531695051</v>
+      </c>
+      <c r="K4" t="n">
         <v>6287.480531695052</v>
       </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="J4" t="n">
-        <v>6287.480531695133</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6287.480531695094</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>6287.480531695052</v>
       </c>
-      <c r="M4" t="n">
-        <v>6287.480531695051</v>
-      </c>
       <c r="N4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.48053169494</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695013</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26472,25 +26472,25 @@
         <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.08936150957</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.08936150957</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-490928.3452029084</v>
+        <v>-490928.3452029087</v>
       </c>
       <c r="C6" t="n">
-        <v>302573.3005079916</v>
+        <v>302573.3005079912</v>
       </c>
       <c r="D6" t="n">
-        <v>475337.6602978839</v>
+        <v>475337.6602978837</v>
       </c>
       <c r="E6" t="n">
-        <v>77775.73163515249</v>
+        <v>77428.35238079559</v>
       </c>
       <c r="F6" t="n">
-        <v>578664.5993809029</v>
+        <v>578317.2201265462</v>
       </c>
       <c r="G6" t="n">
-        <v>578664.5993809034</v>
+        <v>578317.2201265465</v>
       </c>
       <c r="H6" t="n">
-        <v>578664.5993809036</v>
+        <v>578317.2201265467</v>
       </c>
       <c r="I6" t="n">
-        <v>578664.5993809033</v>
+        <v>578317.2201265465</v>
       </c>
       <c r="J6" t="n">
-        <v>409250.5825548555</v>
+        <v>408903.2033004989</v>
       </c>
       <c r="K6" t="n">
-        <v>578664.5993809034</v>
+        <v>578317.2201265466</v>
       </c>
       <c r="L6" t="n">
-        <v>578664.5993809033</v>
+        <v>578317.2201265465</v>
       </c>
       <c r="M6" t="n">
-        <v>447780.1424766681</v>
+        <v>447432.7632223112</v>
       </c>
       <c r="N6" t="n">
-        <v>578664.5993809033</v>
+        <v>578317.2201265466</v>
       </c>
       <c r="O6" t="n">
-        <v>578664.5993809036</v>
+        <v>578317.2201265467</v>
       </c>
       <c r="P6" t="n">
-        <v>578664.5993809034</v>
+        <v>578317.2201265466</v>
       </c>
     </row>
   </sheetData>
@@ -26709,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>7.821585014405183e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>1.287672111612573e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26740,10 +26740,10 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498443</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498444</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352462</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352462</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26810,7 +26810,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26831,7 +26831,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.821585014405183e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.287672111612573e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522334</v>
+        <v>189.7254341522337</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918294</v>
+        <v>428.2691096918297</v>
       </c>
       <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
@@ -26989,13 +26989,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.2100965644023</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352462</v>
+        <v>647.4981915352458</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.2100965644023</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7.821585014405183e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.287672111612573e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.2100965644023</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>207.7092954468271</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>123.7797625976647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27593,16 +27593,16 @@
         <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>27.04533172823227</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>99.81454071097608</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767976</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.9354087744531</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
         <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>109.182301936911</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>317.3128601118513</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
         <v>104.4906595130011</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
         <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>88.94683015005691</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>138.984032185716</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.764663391518866</v>
+        <v>126.7974211985626</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
         <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>138.4981085863364</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>113.4931565317611</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,10 +28067,10 @@
         <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-4.832834400409481e-14</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-7.821585014405173e-14</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.440674018558038e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-6.440674018558038e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-6.440674018558038e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-6.440674018558038e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-6.440674018558038e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.440674018558038e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-6.440674018558038e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-6.440674018558038e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-6.440674018558038e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-6.440674018558038e-14</v>
+        <v>-1.221859578505076e-12</v>
       </c>
       <c r="V14" t="n">
-        <v>-6.440674018558038e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-6.440674018558038e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-6.440674018558038e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-6.440674018558038e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-4.127906585693467e-14</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28806,7 +28806,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-6.392718322726348e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29277,22 +29277,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,10 +29325,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.350276212680659e-12</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29340,10 +29340,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.287672111612573e-13</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1.287672111612573e-13</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1.287672111612573e-13</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1.287672111612573e-13</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.287672111612573e-13</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.287672111612573e-13</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1.287672111612573e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.287672111612573e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.287672111612573e-13</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>1.287672111612573e-13</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1.287672111612573e-13</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1.287672111612573e-13</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1.287672111612573e-13</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1.287672111612573e-13</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.287672111612573e-13</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.287672111612573e-13</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>1.287672111612573e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>1.287672111612573e-13</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>1.287672111612573e-13</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>1.287672111612573e-13</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>1.287672111612573e-13</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>1.287672111612573e-13</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>1.287672111612573e-13</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.287672111612573e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265702</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H5" t="n">
-        <v>38.68851486730739</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I5" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182602</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793975</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853279</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027918</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N5" t="n">
-        <v>674.066977083933</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712722</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062751</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086969</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R5" t="n">
-        <v>237.3018354237519</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179229</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T5" t="n">
         <v>16.53694361837062</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.021255255360042</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H6" t="n">
-        <v>19.5210704925562</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586112</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J6" t="n">
         <v>190.9642958583802</v>
       </c>
       <c r="K6" t="n">
-        <v>326.388397967503</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973636</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041651</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N6" t="n">
-        <v>525.6948043315577</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O6" t="n">
-        <v>480.908043147001</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274804</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q6" t="n">
         <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
-        <v>125.4951289248981</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
         <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841571</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U6" t="n">
         <v>0.1329773194315818</v>
@@ -31436,28 +31436,28 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.694552507729227</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H7" t="n">
-        <v>15.06611229599259</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425714</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J7" t="n">
-        <v>119.8048622964563</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
         <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
-        <v>251.9337428309435</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
         <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509645</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O7" t="n">
         <v>239.5172944561276</v>
@@ -31469,16 +31469,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662505</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S7" t="n">
         <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843059</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523068</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,7 +31518,7 @@
         <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
-        <v>38.68851486730739</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
@@ -31530,28 +31530,28 @@
         <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
-        <v>596.151623085328</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027918</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839331</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712722</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062751</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
         <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
-        <v>237.3018354237519</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179229</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
         <v>16.53694361837062</v>
@@ -31594,13 +31594,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360042</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586112</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
@@ -31609,16 +31609,16 @@
         <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973637</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041651</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315577</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.908043147001</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
         <v>385.9711022274805</v>
@@ -31627,7 +31627,7 @@
         <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
-        <v>125.4951289248981</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
         <v>37.54392985284989</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.694552507729227</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425714</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
@@ -31688,7 +31688,7 @@
         <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309435</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
         <v>265.6288080979551</v>
@@ -31706,13 +31706,13 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662505</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
         <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.24036071484306</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
         <v>0.0924301367852307</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31846,34 +31846,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>616.5397119226058</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>250.1723312270658</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I15" t="n">
-        <v>100.2764607028593</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565744</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32101,10 +32101,10 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32162,31 +32162,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
         <v>0.1345549672467222</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K18" t="n">
-        <v>305.1876769472509</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565744</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,7 +32341,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32399,31 +32399,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U19" t="n">
         <v>0.1345549672467222</v>
@@ -32463,40 +32463,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32505,7 +32505,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32554,31 +32554,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990634</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>574.6535388222617</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32645,7 +32645,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543339</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M24" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,31 +33022,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>460.9249101897664</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>436.0678650906015</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33268,7 +33268,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>472.97362791687</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>379.8551982710414</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>363.5371514786841</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,16 +33760,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33970,7 +33970,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33985,19 +33985,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>750.6021172789107</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34216,7 +34216,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>237.3557891543622</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34701,7 +34701,7 @@
         <v>243.9449667520774</v>
       </c>
       <c r="K2" t="n">
-        <v>354.6246161155181</v>
+        <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
         <v>240.0230113315071</v>
@@ -34713,16 +34713,16 @@
         <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269035</v>
+        <v>641.883670994784</v>
       </c>
       <c r="P2" t="n">
         <v>524.1263114938092</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185461</v>
+        <v>103.2802639586414</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>39.52180169138521</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34783,10 +34783,10 @@
         <v>387.1148251643756</v>
       </c>
       <c r="L3" t="n">
-        <v>460.4681428116963</v>
+        <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691795</v>
+        <v>462.9882007367174</v>
       </c>
       <c r="N3" t="n">
         <v>288.2160307407405</v>
@@ -34795,7 +34795,7 @@
         <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689369</v>
+        <v>174.0696575289998</v>
       </c>
       <c r="Q3" t="n">
         <v>276.0148132527188</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915739</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K5" t="n">
-        <v>260.449553134417</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L5" t="n">
-        <v>360.3852081153406</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755191</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873421</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495854</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510055</v>
+        <v>312.0070187510065</v>
       </c>
       <c r="Q5" t="n">
         <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961977</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>190.2177045321223</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>453.0121960057226</v>
+        <v>362.3108833671845</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174895</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821468</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482245</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025565</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131502</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>237.4056613270733</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978357</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K7" t="n">
-        <v>174.6066995266582</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>279.5237680912596</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
         <v>305.2126850597957</v>
@@ -35108,13 +35108,13 @@
         <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
-        <v>264.1024223701672</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633446</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643208</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.449553134417</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153407</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755191</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873422</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495854</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510055</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
         <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.7162976096198</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>362.3108833671847</v>
+        <v>362.3108833671845</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174895</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821468</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482245</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
         <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131502</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
         <v>328.1069739656113</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978359</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
-        <v>174.6066995266582</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
         <v>279.5237680912597</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>477.9853321427316</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>110.1905571410443</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396415</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7540807028593007</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.95065951213</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>167.3462379728919</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>257.95065951213</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>303.878697277045</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>432.0572943778172</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36290,7 +36290,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>35.97859357997496</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M24" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36615,7 +36615,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>322.3705304098922</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>302.0934576762713</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36916,7 +36916,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>330.3773834724256</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>242.0137592966825</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>220.9409070342396</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37633,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>619.2604051955774</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>94.75954470991782</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3046161.343118713</v>
+        <v>3047921.8734215</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8537270.975549519</v>
+        <v>8537270.975549517</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>204.578443248217</v>
+        <v>12.28773869504415</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>27.65010767666723</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,10 +831,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>80.62570588678166</v>
       </c>
       <c r="I4" t="n">
         <v>114.7793764994862</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>125.8951146780611</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -901,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>245.5007396837705</v>
       </c>
       <c r="W5" t="n">
-        <v>240.0586667805021</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555396</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>126.6831542598988</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>113.153611138112</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>284.7276021833068</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>64.83556544767976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>31.02029624707072</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555396</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1299,16 +1299,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>32.94080611480809</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>156.4198273183101</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417135</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>176.5196562849271</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>9.146142788179425</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>41.55695577161328</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187887</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.7518808581214</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>57.24347904696321</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206857</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>141.5888089825039</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>87.2147151485303</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428297</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012163</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428172</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2958,16 +2958,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>80.33989744908955</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>142.1343012721642</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>78.91051008678096</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3802,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624841</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>360.5823164832036</v>
+        <v>860.9858699783929</v>
       </c>
       <c r="C2" t="n">
-        <v>360.5823164832036</v>
+        <v>860.9858699783929</v>
       </c>
       <c r="D2" t="n">
-        <v>360.5823164832036</v>
+        <v>860.9858699783929</v>
       </c>
       <c r="E2" t="n">
-        <v>360.5823164832036</v>
+        <v>475.1976173801486</v>
       </c>
       <c r="F2" t="n">
-        <v>353.6368157340001</v>
+        <v>64.2117125905411</v>
       </c>
       <c r="G2" t="n">
-        <v>146.9919235640839</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640839</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073764</v>
+        <v>125.8997233870233</v>
       </c>
       <c r="K2" t="n">
-        <v>455.1003844723718</v>
+        <v>608.5986938974718</v>
       </c>
       <c r="L2" t="n">
-        <v>692.7231656905639</v>
+        <v>1044.872095119745</v>
       </c>
       <c r="M2" t="n">
-        <v>988.7937322481669</v>
+        <v>1340.942661677348</v>
       </c>
       <c r="N2" t="n">
-        <v>1294.268838483752</v>
+        <v>1646.417767912934</v>
       </c>
       <c r="O2" t="n">
-        <v>1929.733672768588</v>
+        <v>2287.440977532828</v>
       </c>
       <c r="P2" t="n">
-        <v>2448.618721147459</v>
+        <v>2487.745304821931</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466515</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2448.259651016315</v>
+        <v>2562.063364447383</v>
       </c>
       <c r="T2" t="n">
-        <v>2448.259651016315</v>
+        <v>2562.063364447383</v>
       </c>
       <c r="U2" t="n">
-        <v>2194.618789397902</v>
+        <v>2308.422502828969</v>
       </c>
       <c r="V2" t="n">
-        <v>1863.555902054331</v>
+        <v>1977.359615485399</v>
       </c>
       <c r="W2" t="n">
-        <v>1510.787246784217</v>
+        <v>1624.590960215284</v>
       </c>
       <c r="X2" t="n">
-        <v>1137.321488523137</v>
+        <v>1251.125201954205</v>
       </c>
       <c r="Y2" t="n">
-        <v>747.1821565473253</v>
+        <v>860.9858699783929</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093635</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282365</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669851</v>
+        <v>626.5027693669849</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615296</v>
+        <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884146</v>
+        <v>320.7307563884145</v>
       </c>
       <c r="G3" t="n">
         <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.9974213009382</v>
+        <v>85.99742130093821</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369554</v>
+        <v>77.11538214995069</v>
       </c>
       <c r="K3" t="n">
-        <v>585.1891840496874</v>
+        <v>198.5384744202298</v>
       </c>
       <c r="L3" t="n">
-        <v>1161.911999152943</v>
+        <v>408.1293476730608</v>
       </c>
       <c r="M3" t="n">
-        <v>1620.270317882293</v>
+        <v>767.3556565167225</v>
       </c>
       <c r="N3" t="n">
-        <v>1905.604188315626</v>
+        <v>1408.378866136617</v>
       </c>
       <c r="O3" t="n">
-        <v>2144.409140067085</v>
+        <v>2037.107513972038</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020795</v>
+        <v>2524.714615879285</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4442,7 +4442,7 @@
         <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
         <v>1787.95470102812</v>
@@ -4454,7 +4454,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>781.594482884261</v>
+        <v>862.4201793195754</v>
       </c>
       <c r="C4" t="n">
-        <v>612.6582999563541</v>
+        <v>862.4201793195754</v>
       </c>
       <c r="D4" t="n">
-        <v>462.5416605440183</v>
+        <v>712.3035399072396</v>
       </c>
       <c r="E4" t="n">
-        <v>314.6285669616252</v>
+        <v>564.3904463248465</v>
       </c>
       <c r="F4" t="n">
-        <v>167.7386194637149</v>
+        <v>417.5004988269361</v>
       </c>
       <c r="G4" t="n">
-        <v>167.7386194637149</v>
+        <v>249.17872642006</v>
       </c>
       <c r="H4" t="n">
         <v>167.7386194637149</v>
@@ -4530,10 +4530,10 @@
         <v>1311.202309361123</v>
       </c>
       <c r="X4" t="n">
-        <v>1184.035526858031</v>
+        <v>1083.212758463106</v>
       </c>
       <c r="Y4" t="n">
-        <v>963.2429477145007</v>
+        <v>862.4201793195754</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1587.443666017298</v>
+        <v>1229.177967410547</v>
       </c>
       <c r="C5" t="n">
-        <v>1218.481149076886</v>
+        <v>860.2154504701355</v>
       </c>
       <c r="D5" t="n">
         <v>860.2154504701355</v>
       </c>
       <c r="E5" t="n">
-        <v>474.4271978718913</v>
+        <v>474.4271978718912</v>
       </c>
       <c r="F5" t="n">
-        <v>63.44129308228371</v>
+        <v>63.44129308228369</v>
       </c>
       <c r="G5" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H5" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I5" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J5" t="n">
-        <v>189.986887110478</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
         <v>447.8319447135509</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477379</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.47811553997</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.81819508206</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645556</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507461</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="T5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="U5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="V5" t="n">
-        <v>2589.992766140986</v>
+        <v>2342.012221005863</v>
       </c>
       <c r="W5" t="n">
-        <v>2347.509264342499</v>
+        <v>1989.243565735749</v>
       </c>
       <c r="X5" t="n">
-        <v>1974.043506081419</v>
+        <v>1615.777807474669</v>
       </c>
       <c r="Y5" t="n">
-        <v>1974.043506081419</v>
+        <v>1615.777807474669</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I6" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096209</v>
+        <v>240.1153828096208</v>
       </c>
       <c r="K6" t="n">
-        <v>598.8031573431335</v>
+        <v>426.7768722128334</v>
       </c>
       <c r="L6" t="n">
-        <v>896.1151064594483</v>
+        <v>724.088821329148</v>
       </c>
       <c r="M6" t="n">
-        <v>1262.420995951774</v>
+        <v>1090.394710821473</v>
       </c>
       <c r="N6" t="n">
-        <v>1652.830557277516</v>
+        <v>1480.804272147216</v>
       </c>
       <c r="O6" t="n">
-        <v>1987.759237993047</v>
+        <v>2121.827481767109</v>
       </c>
       <c r="P6" t="n">
-        <v>2237.235965858066</v>
+        <v>2371.304209632128</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833.6319074814764</v>
+        <v>665.6557187433658</v>
       </c>
       <c r="C7" t="n">
-        <v>664.6957245535696</v>
+        <v>496.7195358154589</v>
       </c>
       <c r="D7" t="n">
-        <v>514.5790851412338</v>
+        <v>346.6028964031232</v>
       </c>
       <c r="E7" t="n">
-        <v>366.6659915588407</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F7" t="n">
-        <v>219.7760440609304</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="G7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080543</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121971</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225441</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317418</v>
       </c>
       <c r="N7" t="n">
         <v>1130.141273750633</v>
@@ -4746,31 +4746,31 @@
         <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="R7" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="S7" t="n">
-        <v>1646.983670153878</v>
+        <v>1519.020888073172</v>
       </c>
       <c r="T7" t="n">
-        <v>1646.983670153878</v>
+        <v>1296.086313615153</v>
       </c>
       <c r="U7" t="n">
-        <v>1646.983670153878</v>
+        <v>1296.086313615153</v>
       </c>
       <c r="V7" t="n">
-        <v>1532.687093246694</v>
+        <v>1296.086313615153</v>
       </c>
       <c r="W7" t="n">
-        <v>1243.269923209733</v>
+        <v>1296.086313615153</v>
       </c>
       <c r="X7" t="n">
-        <v>1015.280372311716</v>
+        <v>1068.096762717136</v>
       </c>
       <c r="Y7" t="n">
-        <v>1015.280372311716</v>
+        <v>847.3041835736055</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1863.758352609792</v>
+        <v>1247.782604635669</v>
       </c>
       <c r="C8" t="n">
-        <v>1863.758352609792</v>
+        <v>1247.782604635669</v>
       </c>
       <c r="D8" t="n">
-        <v>1505.492654003041</v>
+        <v>1247.782604635669</v>
       </c>
       <c r="E8" t="n">
-        <v>1119.704401404797</v>
+        <v>1247.782604635669</v>
       </c>
       <c r="F8" t="n">
-        <v>708.7184966151897</v>
+        <v>836.796699846061</v>
       </c>
       <c r="G8" t="n">
         <v>421.1148580461929</v>
@@ -4801,16 +4801,16 @@
         <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104779</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135507</v>
+        <v>447.8319447135508</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477381</v>
+        <v>804.6133007477379</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187502</v>
@@ -4819,37 +4819,37 @@
         <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.81819508206</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645556</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507461</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140986</v>
+        <v>2558.659133568186</v>
       </c>
       <c r="U8" t="n">
-        <v>2589.992766140986</v>
+        <v>2305.079905510433</v>
       </c>
       <c r="V8" t="n">
-        <v>2589.992766140986</v>
+        <v>1974.017018166862</v>
       </c>
       <c r="W8" t="n">
-        <v>2237.224110870872</v>
+        <v>1621.248362896748</v>
       </c>
       <c r="X8" t="n">
-        <v>1863.758352609792</v>
+        <v>1247.782604635669</v>
       </c>
       <c r="Y8" t="n">
-        <v>1863.758352609792</v>
+        <v>1247.782604635669</v>
       </c>
     </row>
     <row r="9">
@@ -4877,34 +4877,34 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J9" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>598.8031573431335</v>
+        <v>563.7673318682815</v>
       </c>
       <c r="L9" t="n">
-        <v>896.1151064594483</v>
+        <v>871.0311846349159</v>
       </c>
       <c r="M9" t="n">
-        <v>1262.420995951774</v>
+        <v>1237.337074127241</v>
       </c>
       <c r="N9" t="n">
-        <v>1652.830557277516</v>
+        <v>1627.746635452984</v>
       </c>
       <c r="O9" t="n">
-        <v>1987.759237993047</v>
+        <v>1962.675316168515</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.235965858066</v>
+        <v>2212.152044033533</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.061870084021</v>
+        <v>2536.977948259489</v>
       </c>
       <c r="R9" t="n">
         <v>2562.061870084021</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>404.1262191931716</v>
+        <v>982.2794430485947</v>
       </c>
       <c r="C10" t="n">
-        <v>235.1900362652646</v>
+        <v>813.3432601206878</v>
       </c>
       <c r="D10" t="n">
-        <v>85.07339685292891</v>
+        <v>663.226620708352</v>
       </c>
       <c r="E10" t="n">
-        <v>51.79985532281972</v>
+        <v>515.3135271259589</v>
       </c>
       <c r="F10" t="n">
-        <v>51.79985532281972</v>
+        <v>368.4235796280485</v>
       </c>
       <c r="G10" t="n">
-        <v>51.79985532281972</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080545</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121971</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225442</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317419</v>
       </c>
       <c r="N10" t="n">
         <v>1130.141273750633</v>
@@ -4986,28 +4986,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="T10" t="n">
-        <v>1646.983670153878</v>
+        <v>1321.927733452885</v>
       </c>
       <c r="U10" t="n">
-        <v>1357.865893164276</v>
+        <v>1163.927907878834</v>
       </c>
       <c r="V10" t="n">
-        <v>1103.181404958389</v>
+        <v>1163.927907878834</v>
       </c>
       <c r="W10" t="n">
-        <v>813.7642349214286</v>
+        <v>1163.927907878834</v>
       </c>
       <c r="X10" t="n">
-        <v>585.7746840234113</v>
+        <v>1163.927907878834</v>
       </c>
       <c r="Y10" t="n">
-        <v>585.7746840234113</v>
+        <v>1163.927907878834</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5056,37 +5056,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756267</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756267</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021788</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756786</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996073</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2443.972636491141</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>261.012762333092</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797191</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,52 +5266,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468476</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962607</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589159</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143766</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>721.7774158311365</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>552.8412329032296</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2404.986360578632</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2185.384895601574</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1896.309668945771</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1641.625180739884</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1352.208010702924</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1124.218459804906</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>903.4258806613763</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797193</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5530,37 +5530,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468476</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962607</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589159</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143766</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400726</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487569</v>
+        <v>2389.141387573227</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.46108051051</v>
+        <v>2169.539922596168</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1880.464695940366</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1625.780207734479</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.28419561186</v>
+        <v>1336.363037697518</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138424</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703123</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,64 +5740,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192514</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
@@ -6007,34 +6007,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273913</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J24" t="n">
-        <v>245.230692780394</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245692</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403282</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400726</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121657</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121657</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121657</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121657</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270456</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138424</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703123</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,40 +6217,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452619</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718135</v>
       </c>
       <c r="N27" t="n">
-        <v>1702.079034721979</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2253.988764961266</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6375,22 +6375,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6460,19 +6460,19 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6481,10 +6481,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>721.7774158311365</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>552.8412329032296</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U31" t="n">
-        <v>1896.309668945771</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V31" t="n">
-        <v>1641.625180739884</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W31" t="n">
-        <v>1352.208010702924</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X31" t="n">
-        <v>1124.218459804906</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y31" t="n">
-        <v>903.4258806613763</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="32">
@@ -6691,37 +6691,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>484.8243144841094</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>980.1499206998682</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>1577.52840832642</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7165,25 +7165,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7192,10 +7192,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7311,16 +7311,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7332,37 +7332,37 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
         <v>1746.193029533436</v>
@@ -7402,58 +7402,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>200.6571919233145</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>363.9884999678804</v>
+        <v>369.603020508343</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>26.19461818159724</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>196.3826133675379</v>
+        <v>96.24927004866061</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>359.282160794506</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>173.7639243740404</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>309.1863928326896</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>74.65481927720015</v>
       </c>
       <c r="R6" t="n">
-        <v>20.1843750390658</v>
+        <v>20.18437503906583</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>173.7639243740404</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>10.05242792961593</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.1843750390658</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.932676241267473e-12</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347518</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>139.4693302300313</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405064</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>123.7828069546814</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>144.5956654067402</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194089</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>205.8445769401546</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>731921.4354061165</v>
+        <v>731921.4354061164</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>731921.4354061165</v>
+        <v>731921.4354061164</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>731921.4354061165</v>
+        <v>731921.4354061164</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>731921.4354061165</v>
+        <v>731921.4354061164</v>
       </c>
     </row>
     <row r="13">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846415</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846413</v>
+        <v>697885.5043846415</v>
       </c>
       <c r="E2" t="n">
         <v>686074.6097365058</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="H2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="I2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="J2" t="n">
         <v>686074.6097365057</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365054</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365057</v>
@@ -26352,7 +26352,7 @@
         <v>686074.6097365057</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="P2" t="n">
         <v>686074.6097365057</v>
@@ -26368,16 +26368,16 @@
         <v>939682.9358753987</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898923</v>
+        <v>172764.3597898921</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457512</v>
+        <v>500888.8677457509</v>
       </c>
       <c r="F3" t="n">
-        <v>2.42299065000967e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260474</v>
+        <v>169414.016826048</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.310606189188547e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042353</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26420,28 +26420,28 @@
         <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
         <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531694953</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531694981</v>
+        <v>6287.480531695102</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531694957</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.48053169493</v>
+        <v>6287.480531695093</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695087</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695134</v>
       </c>
       <c r="K4" t="n">
         <v>6287.480531695052</v>
@@ -26453,7 +26453,7 @@
         <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="O4" t="n">
         <v>6287.480531695052</v>
@@ -26472,25 +26472,25 @@
         <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150957</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150957</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-490928.3452029087</v>
+        <v>-490928.3452029086</v>
       </c>
       <c r="C6" t="n">
-        <v>302573.3005079912</v>
+        <v>302573.3005079918</v>
       </c>
       <c r="D6" t="n">
-        <v>475337.6602978837</v>
+        <v>475337.6602978839</v>
       </c>
       <c r="E6" t="n">
-        <v>77428.35238079559</v>
+        <v>77740.99370971703</v>
       </c>
       <c r="F6" t="n">
-        <v>578317.2201265462</v>
+        <v>578629.861455468</v>
       </c>
       <c r="G6" t="n">
-        <v>578317.2201265465</v>
+        <v>578629.861455468</v>
       </c>
       <c r="H6" t="n">
-        <v>578317.2201265467</v>
+        <v>578629.8614554679</v>
       </c>
       <c r="I6" t="n">
-        <v>578317.2201265465</v>
+        <v>578629.8614554676</v>
       </c>
       <c r="J6" t="n">
-        <v>408903.2033004989</v>
+        <v>409215.8446294197</v>
       </c>
       <c r="K6" t="n">
-        <v>578317.2201265466</v>
+        <v>578629.8614554675</v>
       </c>
       <c r="L6" t="n">
-        <v>578317.2201265465</v>
+        <v>578629.861455468</v>
       </c>
       <c r="M6" t="n">
-        <v>447432.7632223112</v>
+        <v>447745.4045512325</v>
       </c>
       <c r="N6" t="n">
-        <v>578317.2201265466</v>
+        <v>578629.8614554679</v>
       </c>
       <c r="O6" t="n">
-        <v>578317.2201265467</v>
+        <v>578629.8614554679</v>
       </c>
       <c r="P6" t="n">
-        <v>578317.2201265466</v>
+        <v>578629.8614554678</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.821585014405183e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26740,10 +26740,10 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498443</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498444</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,25 +26792,25 @@
         <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352462</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352462</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.821585014405183e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26962,46 +26962,46 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522337</v>
+        <v>189.7254341522334</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918297</v>
+        <v>428.2691096918294</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.547473508864641e-13</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644023</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352458</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644023</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.821585014405183e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644023</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>207.7092954468271</v>
       </c>
       <c r="H2" t="n">
         <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>112.6656762967568</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>69.57718177713885</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>99.81454071097608</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>64.83556544767976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>122.9354087744531</v>
       </c>
       <c r="T5" t="n">
         <v>206.5589059457607</v>
@@ -27675,10 +27675,10 @@
         <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>82.25151878636444</v>
       </c>
       <c r="W5" t="n">
-        <v>109.182301936911</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
         <v>147.161060211447</v>
@@ -27824,25 +27824,25 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>67.80201507419227</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>138.984032185716</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,16 +27858,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>126.7974211985626</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>122.9354087744531</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>175.53860969869</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28019,16 +28019,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>113.4931565317611</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.4906595130011</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>129.8067719013955</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.832834400409481e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-7.821585014405173e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-1.221859578505076e-12</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.127906585693467e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28800,13 +28800,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-6.392718322726348e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265702</v>
       </c>
       <c r="H5" t="n">
-        <v>38.6885148673074</v>
+        <v>38.68851486730739</v>
       </c>
       <c r="I5" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182602</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793975</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853279</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027918</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839332</v>
+        <v>674.066977083933</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712722</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062751</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086969</v>
       </c>
       <c r="R5" t="n">
-        <v>237.301835423752</v>
+        <v>237.3018354237519</v>
       </c>
       <c r="S5" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179229</v>
       </c>
       <c r="T5" t="n">
         <v>16.53694361837062</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.021255255360043</v>
+        <v>2.021255255360042</v>
       </c>
       <c r="H6" t="n">
-        <v>19.52107049255621</v>
+        <v>19.5210704925562</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586112</v>
       </c>
       <c r="J6" t="n">
         <v>190.9642958583802</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675031</v>
+        <v>326.388397967503</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973636</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041651</v>
       </c>
       <c r="N6" t="n">
-        <v>525.6948043315579</v>
+        <v>525.6948043315577</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470011</v>
+        <v>480.908043147001</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274804</v>
       </c>
       <c r="Q6" t="n">
         <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
-        <v>125.4951289248982</v>
+        <v>125.4951289248981</v>
       </c>
       <c r="S6" t="n">
         <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841571</v>
       </c>
       <c r="U6" t="n">
         <v>0.1329773194315818</v>
@@ -31436,28 +31436,28 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.694552507729228</v>
+        <v>1.694552507729227</v>
       </c>
       <c r="H7" t="n">
-        <v>15.0661122959926</v>
+        <v>15.06611229599259</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425714</v>
       </c>
       <c r="J7" t="n">
-        <v>119.8048622964564</v>
+        <v>119.8048622964563</v>
       </c>
       <c r="K7" t="n">
         <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
-        <v>251.9337428309436</v>
+        <v>251.9337428309435</v>
       </c>
       <c r="M7" t="n">
         <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509645</v>
       </c>
       <c r="O7" t="n">
         <v>239.5172944561276</v>
@@ -31469,16 +31469,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662505</v>
       </c>
       <c r="S7" t="n">
         <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843059</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523068</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,7 +31518,7 @@
         <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
-        <v>38.6885148673074</v>
+        <v>38.68851486730739</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
@@ -31530,28 +31530,28 @@
         <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853281</v>
+        <v>596.151623085328</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027918</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839332</v>
+        <v>674.0669770839331</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712722</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062751</v>
       </c>
       <c r="Q8" t="n">
         <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
-        <v>237.301835423752</v>
+        <v>237.3018354237519</v>
       </c>
       <c r="S8" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179229</v>
       </c>
       <c r="T8" t="n">
         <v>16.53694361837062</v>
@@ -31594,13 +31594,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360043</v>
+        <v>2.021255255360042</v>
       </c>
       <c r="H9" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586112</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
@@ -31609,16 +31609,16 @@
         <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973637</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041651</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315579</v>
+        <v>525.6948043315577</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470011</v>
+        <v>480.908043147001</v>
       </c>
       <c r="P9" t="n">
         <v>385.9711022274805</v>
@@ -31627,7 +31627,7 @@
         <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
-        <v>125.4951289248982</v>
+        <v>125.4951289248981</v>
       </c>
       <c r="S9" t="n">
         <v>37.54392985284989</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.694552507729228</v>
+        <v>1.694552507729227</v>
       </c>
       <c r="H10" t="n">
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425714</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
@@ -31688,7 +31688,7 @@
         <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309436</v>
+        <v>251.9337428309435</v>
       </c>
       <c r="M10" t="n">
         <v>265.6288080979551</v>
@@ -31706,13 +31706,13 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662505</v>
       </c>
       <c r="S10" t="n">
         <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843061</v>
+        <v>7.24036071484306</v>
       </c>
       <c r="U10" t="n">
         <v>0.0924301367852307</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>279.2419622547062</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>250.1723312270658</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473075</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565744</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862125</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565744</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>446.0127311990634</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135343</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.307619600775</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
-        <v>173.8200325543339</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437246</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33025,25 +33025,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>246.9596973201452</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P27" t="n">
-        <v>436.0678650906015</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,10 +33052,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>400.5469039565762</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,22 +33502,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>379.8551982710414</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>400.5469039565762</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,22 +33976,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>400.5469039565762</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520774</v>
+        <v>74.84835158000359</v>
       </c>
       <c r="K2" t="n">
-        <v>163.429305116157</v>
+        <v>487.5747176873218</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315071</v>
+        <v>440.6802032548216</v>
       </c>
       <c r="M2" t="n">
         <v>299.0611783410131</v>
@@ -34713,16 +34713,16 @@
         <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
-        <v>641.883670994784</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938092</v>
+        <v>202.3276033223266</v>
       </c>
       <c r="Q2" t="n">
         <v>103.2802639586414</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138521</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.662274559733</v>
+        <v>25.57123921932421</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643756</v>
+        <v>122.649588151797</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840966</v>
+        <v>211.7079527806374</v>
       </c>
       <c r="M3" t="n">
-        <v>462.9882007367174</v>
+        <v>362.8548574178402</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407405</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812715</v>
+        <v>635.0794422580011</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289998</v>
+        <v>492.5324261689369</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527188</v>
+        <v>65.9375255168697</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915739</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344171</v>
+        <v>260.449553134417</v>
       </c>
       <c r="L5" t="n">
-        <v>360.3852081153408</v>
+        <v>360.3852081153406</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755191</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873421</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495854</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510065</v>
+        <v>312.0070187510055</v>
       </c>
       <c r="Q5" t="n">
         <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961977</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>190.2177045321224</v>
+        <v>190.2177045321223</v>
       </c>
       <c r="K6" t="n">
-        <v>362.3108833671845</v>
+        <v>188.546958993144</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174896</v>
+        <v>300.3151001174895</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821469</v>
+        <v>370.0059489821468</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482246</v>
+        <v>394.3530922482245</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025566</v>
+        <v>647.4981915352462</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131503</v>
+        <v>251.9966948131502</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656113</v>
+        <v>192.6845055069623</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978357</v>
       </c>
       <c r="K7" t="n">
-        <v>174.6066995266583</v>
+        <v>174.6066995266582</v>
       </c>
       <c r="L7" t="n">
-        <v>279.5237680912597</v>
+        <v>279.5237680912596</v>
       </c>
       <c r="M7" t="n">
         <v>305.2126850597957</v>
@@ -35108,13 +35108,13 @@
         <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
-        <v>264.1024223701673</v>
+        <v>264.1024223701672</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633446</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643208</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344171</v>
+        <v>260.449553134417</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153408</v>
+        <v>360.3852081153407</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755191</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873422</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495854</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510055</v>
       </c>
       <c r="Q8" t="n">
         <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961983</v>
+        <v>21.7162976096198</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K9" t="n">
-        <v>362.3108833671845</v>
+        <v>453.0121960057227</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174896</v>
+        <v>310.3675280471055</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821469</v>
+        <v>370.0059489821468</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482246</v>
+        <v>394.3530922482245</v>
       </c>
       <c r="O9" t="n">
         <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131503</v>
+        <v>251.9966948131502</v>
       </c>
       <c r="Q9" t="n">
         <v>328.1069739656113</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>25.33729477225501</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978359</v>
       </c>
       <c r="K10" t="n">
-        <v>174.6066995266583</v>
+        <v>174.6066995266582</v>
       </c>
       <c r="L10" t="n">
         <v>279.5237680912597</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.1905571410443</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674334</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.95065951213</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641942</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.95065951213</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>303.878697277045</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396422</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774958</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>35.97859357997496</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674334</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238456</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992802</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>108.405317540271</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P27" t="n">
-        <v>302.0934576762713</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>257.9506595121318</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>242.0137592966825</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>257.9506595121318</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>257.9506595121318</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
